--- a/statistics_files/nekls_executive_board/2025/2025_05_next_statistics_for_executive_board.xlsx
+++ b/statistics_files/nekls_executive_board/2025/2025_05_next_statistics_for_executive_board.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\github\next_statistics\statistics_files\nekls_executive_board\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1B197D-1D38-447A-8803-A966FB1436D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2A5FA6-D74B-43E6-B10D-CF545FADAB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2A57D273-25D8-4B59-B312-C23EE47CE1EB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2A57D273-25D8-4B59-B312-C23EE47CE1EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -720,11 +720,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2BA7A8-2C45-46BA-A4D2-10595F3507C4}">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,449 +761,785 @@
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="B3" s="5">
+        <v>27846</v>
+      </c>
+      <c r="C3" s="5">
+        <v>4724</v>
+      </c>
+      <c r="D3" s="5">
+        <v>5425</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="B4" s="7">
+        <v>16441</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1452</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2245</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="B5" s="5">
+        <v>42614</v>
+      </c>
+      <c r="C5" s="5">
+        <v>3678</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4042</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="B6" s="7">
+        <v>666</v>
+      </c>
+      <c r="C6" s="7">
+        <v>489</v>
+      </c>
+      <c r="D6" s="7">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="B7" s="5">
+        <v>28100</v>
+      </c>
+      <c r="C7" s="5">
+        <v>4148</v>
+      </c>
+      <c r="D7" s="5">
+        <v>3776</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="B8" s="7">
+        <v>3404</v>
+      </c>
+      <c r="C8" s="7">
+        <v>629</v>
+      </c>
+      <c r="D8" s="7">
+        <v>675</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="B9" s="5">
+        <v>3555</v>
+      </c>
+      <c r="C9" s="5">
+        <v>659</v>
+      </c>
+      <c r="D9" s="5">
+        <v>627</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="B10" s="7">
+        <v>1389</v>
+      </c>
+      <c r="C10" s="7">
+        <v>288</v>
+      </c>
+      <c r="D10" s="7">
+        <v>131</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="B11" s="5">
+        <v>299</v>
+      </c>
+      <c r="C11" s="5">
+        <v>142</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+      <c r="B12" s="7">
+        <v>11</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
+      <c r="B13" s="9">
+        <v>633</v>
+      </c>
+      <c r="C13" s="9">
+        <v>103</v>
+      </c>
+      <c r="D13" s="9">
+        <v>241</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="B14" s="11">
+        <v>1358</v>
+      </c>
+      <c r="C14" s="11">
+        <v>650</v>
+      </c>
+      <c r="D14" s="11">
+        <v>544</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
+      <c r="B15" s="9">
+        <v>3166</v>
+      </c>
+      <c r="C15" s="9">
+        <v>943</v>
+      </c>
+      <c r="D15" s="9">
+        <v>680</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+      <c r="B16" s="11">
+        <v>1486</v>
+      </c>
+      <c r="C16" s="11">
+        <v>1200</v>
+      </c>
+      <c r="D16" s="11">
+        <v>411</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="B17" s="5">
+        <v>1494</v>
+      </c>
+      <c r="C17" s="5">
+        <v>716</v>
+      </c>
+      <c r="D17" s="5">
+        <v>259</v>
+      </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+      <c r="B18" s="7">
+        <v>10422</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1727</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2259</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="B19" s="5">
+        <v>640</v>
+      </c>
+      <c r="C19" s="5">
+        <v>395</v>
+      </c>
+      <c r="D19" s="5">
+        <v>167</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+      <c r="B20" s="7">
+        <v>10385</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1623</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1559</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="B21" s="5">
+        <v>297</v>
+      </c>
+      <c r="C21" s="5">
+        <v>222</v>
+      </c>
+      <c r="D21" s="5">
+        <v>143</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
+      <c r="B22" s="7">
+        <v>10489</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1304</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1765</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
+      <c r="B23" s="5">
+        <v>1372</v>
+      </c>
+      <c r="C23" s="5">
+        <v>977</v>
+      </c>
+      <c r="D23" s="5">
+        <v>288</v>
+      </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
+      <c r="B24" s="7">
+        <v>13151</v>
+      </c>
+      <c r="C24" s="7">
+        <v>1944</v>
+      </c>
+      <c r="D24" s="7">
+        <v>2417</v>
+      </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
+      <c r="B25" s="5">
+        <v>49762</v>
+      </c>
+      <c r="C25" s="5">
+        <v>4181</v>
+      </c>
+      <c r="D25" s="5">
+        <v>5909</v>
+      </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
+      <c r="B26" s="7">
+        <v>3272</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1732</v>
+      </c>
+      <c r="D26" s="7">
+        <v>526</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
+      <c r="B27" s="5">
+        <v>0</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
+      <c r="B28" s="7">
+        <v>2323</v>
+      </c>
+      <c r="C28" s="7">
+        <v>619</v>
+      </c>
+      <c r="D28" s="7">
+        <v>654</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
+      <c r="B29" s="5">
+        <v>1716</v>
+      </c>
+      <c r="C29" s="5">
+        <v>408</v>
+      </c>
+      <c r="D29" s="5">
+        <v>432</v>
+      </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
+      <c r="B30" s="7">
+        <v>11483</v>
+      </c>
+      <c r="C30" s="7">
+        <v>1864</v>
+      </c>
+      <c r="D30" s="7">
+        <v>2316</v>
+      </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
+      <c r="B31" s="5">
+        <v>239</v>
+      </c>
+      <c r="C31" s="5">
+        <v>54</v>
+      </c>
+      <c r="D31" s="5">
+        <v>109</v>
+      </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
+      <c r="B32" s="7">
+        <v>1695</v>
+      </c>
+      <c r="C32" s="7">
+        <v>981</v>
+      </c>
+      <c r="D32" s="7">
+        <v>198</v>
+      </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
+      <c r="B33" s="5">
+        <v>8250</v>
+      </c>
+      <c r="C33" s="5">
+        <v>2189</v>
+      </c>
+      <c r="D33" s="5">
+        <v>1870</v>
+      </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
+      <c r="B34" s="7">
+        <v>6884</v>
+      </c>
+      <c r="C34" s="7">
+        <v>1668</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1640</v>
+      </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
+      <c r="B35" s="5">
+        <v>3460</v>
+      </c>
+      <c r="C35" s="5">
+        <v>607</v>
+      </c>
+      <c r="D35" s="5">
+        <v>693</v>
+      </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
+      <c r="B36" s="7">
+        <v>34993</v>
+      </c>
+      <c r="C36" s="7">
+        <v>4788</v>
+      </c>
+      <c r="D36" s="7">
+        <v>3806</v>
+      </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
+      <c r="B37" s="5">
+        <v>4697</v>
+      </c>
+      <c r="C37" s="5">
+        <v>2206</v>
+      </c>
+      <c r="D37" s="5">
+        <v>628</v>
+      </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
+      <c r="B38" s="7">
+        <v>17577</v>
+      </c>
+      <c r="C38" s="7">
+        <v>979</v>
+      </c>
+      <c r="D38" s="7">
+        <v>1900</v>
+      </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
+      <c r="B39" s="5">
+        <v>875</v>
+      </c>
+      <c r="C39" s="5">
+        <v>659</v>
+      </c>
+      <c r="D39" s="5">
+        <v>99</v>
+      </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
+      <c r="B40" s="7">
+        <v>669</v>
+      </c>
+      <c r="C40" s="7">
+        <v>345</v>
+      </c>
+      <c r="D40" s="7">
+        <v>355</v>
+      </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
+      <c r="B41" s="13">
+        <v>1452</v>
+      </c>
+      <c r="C41" s="13">
+        <v>378</v>
+      </c>
+      <c r="D41" s="13">
+        <v>74</v>
+      </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
+      <c r="B42" s="15">
+        <v>8519</v>
+      </c>
+      <c r="C42" s="15">
+        <v>335</v>
+      </c>
+      <c r="D42" s="15">
+        <v>296</v>
+      </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
+      <c r="B43" s="13">
+        <v>124</v>
+      </c>
+      <c r="C43" s="13">
+        <v>104</v>
+      </c>
+      <c r="D43" s="13">
+        <v>23</v>
+      </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
+      <c r="B44" s="15">
+        <v>624</v>
+      </c>
+      <c r="C44" s="15">
+        <v>163</v>
+      </c>
+      <c r="D44" s="15">
+        <v>72</v>
+      </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
+      <c r="B45" s="7">
+        <v>1927</v>
+      </c>
+      <c r="C45" s="7">
+        <v>844</v>
+      </c>
+      <c r="D45" s="7">
+        <v>160</v>
+      </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
+      <c r="B46" s="5">
+        <v>9310</v>
+      </c>
+      <c r="C46" s="5">
+        <v>2276</v>
+      </c>
+      <c r="D46" s="5">
+        <v>1928</v>
+      </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
+      <c r="B47" s="7">
+        <v>19297</v>
+      </c>
+      <c r="C47" s="7">
+        <v>2625</v>
+      </c>
+      <c r="D47" s="7">
+        <v>3826</v>
+      </c>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
+      <c r="B48" s="5">
+        <v>8549</v>
+      </c>
+      <c r="C48" s="5">
+        <v>2388</v>
+      </c>
+      <c r="D48" s="5">
+        <v>746</v>
+      </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
+      <c r="B49" s="7">
+        <v>8313</v>
+      </c>
+      <c r="C49" s="7">
+        <v>897</v>
+      </c>
+      <c r="D49" s="7">
+        <v>2229</v>
+      </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
+      <c r="B50" s="5">
+        <v>18808</v>
+      </c>
+      <c r="C50" s="5">
+        <v>2118</v>
+      </c>
+      <c r="D50" s="5">
+        <v>3087</v>
+      </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
+      <c r="B51" s="7">
+        <v>3099</v>
+      </c>
+      <c r="C51" s="7">
+        <v>658</v>
+      </c>
+      <c r="D51" s="7">
+        <v>871</v>
+      </c>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
+      <c r="B52" s="5">
+        <v>6764</v>
+      </c>
+      <c r="C52" s="5">
+        <v>1428</v>
+      </c>
+      <c r="D52" s="5">
+        <v>1184</v>
+      </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
+      <c r="B53" s="7">
+        <v>1409</v>
+      </c>
+      <c r="C53" s="7">
+        <v>884</v>
+      </c>
+      <c r="D53" s="7">
+        <v>622</v>
+      </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
+      <c r="B54" s="5">
+        <v>1005</v>
+      </c>
+      <c r="C54" s="5">
+        <v>1032</v>
+      </c>
+      <c r="D54" s="5">
+        <v>119</v>
+      </c>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
+      <c r="B55" s="7">
+        <v>3713</v>
+      </c>
+      <c r="C55" s="7">
+        <v>865</v>
+      </c>
+      <c r="D55" s="7">
+        <v>1830</v>
+      </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
+      <c r="B56" s="17">
+        <v>6643</v>
+      </c>
+      <c r="C56" s="17">
+        <v>2896</v>
+      </c>
+      <c r="D56" s="17">
+        <v>1876</v>
+      </c>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
+      <c r="B57" s="19">
+        <v>10719</v>
+      </c>
+      <c r="C57" s="19">
+        <v>980</v>
+      </c>
+      <c r="D57" s="19">
+        <v>465</v>
+      </c>
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
+      <c r="B58" s="21">
+        <v>420026</v>
+      </c>
+      <c r="C58" s="21">
+        <v>68288</v>
+      </c>
+      <c r="D58" s="21">
+        <v>65911</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:D58" xr:uid="{1D2BA7A8-2C45-46BA-A4D2-10595F3507C4}"/>
